--- a/data/trans_orig/iP30B7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B7_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CBFCAF-6829-43BF-A6BB-9CBA3D8451B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D137768-08FA-4C66-B251-232B189A5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{60469A1C-AAEE-4A69-8765-F1C6C8D52A59}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D1B2BD2D-8204-4CA1-B974-D350ED815ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>47,85%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>50,12%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>52,15%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>58,73%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -215,9 +329,6 @@
     <t>30,78%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
     <t>62,4%</t>
   </si>
   <si>
@@ -239,118 +350,7 @@
     <t>64,87%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
     <t>69,22%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
   </si>
   <si>
     <t>45,27%</t>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300B3DC8-65BC-4FB9-BDF6-B399A353819C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8BE31D-33B0-4025-9E2D-9818CEAF4EB2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>116225</v>
+        <v>7696</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>80313</v>
+        <v>8935</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>196538</v>
+        <v>16630</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>126688</v>
+        <v>3701</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>107604</v>
+        <v>7064</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>234292</v>
+        <v>10765</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1016,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1031,10 +1031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1046,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D10" s="7">
-        <v>64462</v>
+        <v>116225</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1239,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="I10" s="7">
-        <v>54954</v>
+        <v>80313</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1254,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="N10" s="7">
-        <v>119416</v>
+        <v>196538</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>106994</v>
+        <v>126688</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1290,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>113536</v>
+        <v>107604</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1305,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="N11" s="7">
-        <v>220531</v>
+        <v>234292</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1341,10 +1341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1356,10 +1356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>7696</v>
+        <v>91121</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1394,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>8935</v>
+        <v>84638</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,19 +1409,19 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="N13" s="7">
-        <v>16630</v>
+        <v>175759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,49 +1430,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D14" s="7">
-        <v>3701</v>
+        <v>79998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I14" s="7">
-        <v>7064</v>
+        <v>81930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="N14" s="7">
-        <v>10765</v>
+        <v>161928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1496,10 +1496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1511,10 +1511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1528,55 +1528,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>91121</v>
+        <v>64462</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>84638</v>
+        <v>54954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>175759</v>
+        <v>119416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,46 +1585,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>142</v>
+      </c>
+      <c r="D17" s="7">
+        <v>106994</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>156</v>
+      </c>
+      <c r="I17" s="7">
+        <v>113536</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="7">
-        <v>79998</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7">
-        <v>81930</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="N17" s="7">
-        <v>161928</v>
+        <v>220531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -1636,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1651,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30B7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B7_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D137768-08FA-4C66-B251-232B189A5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697FFCA3-9950-48D0-991D-EDB5244DD287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D1B2BD2D-8204-4CA1-B974-D350ED815ED9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D559BE0E-FDCC-483F-8510-B1451F945576}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si toman 2 yogures y/o 40 g de queso cada día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,313 +128,292 @@
     <t>73,77%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>43,25%</t>
   </si>
   <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
   </si>
   <si>
     <t>39,96%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
     <t>47,85%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
   </si>
   <si>
     <t>45,62%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
     <t>53,25%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>60,59%</t>
+    <t>60,85%</t>
   </si>
   <si>
     <t>50,81%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>52,05%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>45,27%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
   <si>
     <t>43,99%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,39 +520,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -706,13 +715,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -721,6 +723,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -785,19 +794,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8BE31D-33B0-4025-9E2D-9818CEAF4EB2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21781E6-8FE2-49DF-BE65-CB05062E44F3}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -914,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>7696</v>
+        <v>3701</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -932,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>8935</v>
+        <v>7064</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>16630</v>
+        <v>10765</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>3701</v>
+        <v>7696</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -983,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>7064</v>
+        <v>8935</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>10765</v>
+        <v>16630</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1069,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7">
-        <v>41594</v>
+        <v>70854</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1084,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>43958</v>
+        <v>57677</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1099,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="N7" s="7">
-        <v>85552</v>
+        <v>128531</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1120,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>70854</v>
+        <v>41594</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1135,10 +1164,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7">
-        <v>57677</v>
+        <v>43958</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1150,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="N8" s="7">
-        <v>128531</v>
+        <v>85552</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1224,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>116225</v>
+        <v>126688</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="I10" s="7">
-        <v>80313</v>
+        <v>107604</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="N10" s="7">
-        <v>196538</v>
+        <v>234292</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7">
-        <v>126688</v>
+        <v>116225</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1319,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="I11" s="7">
-        <v>107604</v>
+        <v>80313</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1334,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="N11" s="7">
-        <v>234292</v>
+        <v>196538</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1379,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>91121</v>
+        <v>79998</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="I13" s="7">
-        <v>84638</v>
+        <v>81930</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N13" s="7">
-        <v>175759</v>
+        <v>161928</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1430,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>79998</v>
+        <v>91121</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1445,10 +1474,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7">
-        <v>81930</v>
+        <v>84638</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1460,10 +1489,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="N14" s="7">
-        <v>161928</v>
+        <v>175759</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1534,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7">
-        <v>64462</v>
+        <v>106994</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1549,10 +1578,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="I16" s="7">
-        <v>54954</v>
+        <v>113536</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1564,10 +1593,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="N16" s="7">
-        <v>119416</v>
+        <v>220531</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1576,7 +1605,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,49 +1614,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>106994</v>
+        <v>64462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>113536</v>
+        <v>54954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="N17" s="7">
-        <v>220531</v>
+        <v>119416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,49 +1718,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="D19" s="7">
-        <v>321099</v>
+        <v>388234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>380</v>
+        <v>535</v>
       </c>
       <c r="I19" s="7">
-        <v>272797</v>
+        <v>367812</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>815</v>
+        <v>1040</v>
       </c>
       <c r="N19" s="7">
-        <v>593896</v>
+        <v>756046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,49 +1769,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="D20" s="7">
-        <v>388235</v>
+        <v>321099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>535</v>
+        <v>380</v>
       </c>
       <c r="I20" s="7">
-        <v>367812</v>
+        <v>272797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>1040</v>
+        <v>815</v>
       </c>
       <c r="N20" s="7">
-        <v>756046</v>
+        <v>593896</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,7 +1823,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1834,6 +1863,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
